--- a/biology/Zoologie/Conus_episcopatus/Conus_episcopatus.xlsx
+++ b/biology/Zoologie/Conus_episcopatus/Conus_episcopatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus episcopatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 40 mm et 115 mm.
 </t>
@@ -543,12 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans le Pacifique tropical indo-occidental, au large des Mascareignes, de l'Inde et de l'Australie (Queensland).
 .
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans tout l'Indo-Pacifique, à l'exception d'Hawaï. Cette espèce est très répandue mais peu commune dans toute son aire de répartition. Cependant, il n'y a pas de menaces majeures connues et elle est classée dans la catégorie "préoccupation mineure"[1].
 </t>
         </is>
       </c>
@@ -574,24 +588,169 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans tout l'Indo-Pacifique, à l'exception d'Hawaï. Cette espèce est très répandue mais peu commune dans toute son aire de répartition. Cependant, il n'y a pas de menaces majeures connues et elle est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus episcopatus a été décrite pour la première fois en 1982 par le malacologiste américain António José da Motta (d)[2] dans la publication intitulée « Publicações Ocasionais da Sociedade Portuguesa de Malacologia »[3],[4].
-Synonymes
-Conus (Darioconus) episcopatus da Motta, 1982 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus episcopatus a été décrite pour la première fois en 1982 par le malacologiste américain António José da Motta (d) dans la publication intitulée « Publicações Ocasionais da Sociedade Portuguesa de Malacologia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Darioconus) episcopatus da Motta, 1982 · appellation alternative
 Conus episcopatus pupillaris da Motta, 1982 · non accepté
 Conus episcopus var. elongatus Adam &amp; Leloup, 1937 · non accepté
 Conus episcopus var. oblongus Fenaux, 1942 · non accepté
 Conus magnificus macilentus Lauer, 1989 · non accepté
-Darioconus episcopatus (da Motta, 1982) · non accepté
-Sous-espèces
-Conus episcopatus pupillaris da Motta, 1982, accepté en tant que Conus episcopatus da Motta, 1982
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus episcopatus dans les principales bases sont les suivants :
+Darioconus episcopatus (da Motta, 1982) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus episcopatus pupillaris da Motta, 1982, accepté en tant que Conus episcopatus da Motta, 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_episcopatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus episcopatus dans les principales bases sont les suivants :
 AFD : Conus_(Darioconus)_episcopatus - BOLD : 84894 - CoL : XXCC - GBIF : 5728205 - iNaturalist : 431954 - IRMNG : 10984146 - NCBI : 526810 - TAXREF : 91978 - UICN : 192664 - WoRMS : 215455
 </t>
         </is>
